--- a/excelconnector-test-rc/src/main/resources/TestResourceCenter/Excel/PersonListing2.xlsx
+++ b/excelconnector-test-rc/src/main/resources/TestResourceCenter/Excel/PersonListing2.xlsx
@@ -84,6 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -553,11 +554,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="6.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
